--- a/foodtable/3.xlsx
+++ b/foodtable/3.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 복리후생\2017년\3. 식당\2020년 식단표\0316\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 복리후생\2017년\3. 식당\2020년 식단표\0323\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
-    <sheet name="3.16-3.20" sheetId="3" r:id="rId1"/>
-    <sheet name="3.16-3.20(영)" sheetId="2" r:id="rId2"/>
+    <sheet name="3.23-3.27" sheetId="3" r:id="rId1"/>
+    <sheet name="3.23-3.27(영)" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="155">
   <si>
     <t>석식</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -549,127 +549,132 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Seasoned red pepper leaves</t>
+  </si>
+  <si>
+    <t>Citrus Tea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3월23일 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월24일</t>
+  </si>
+  <si>
+    <t>3월25일</t>
+  </si>
+  <si>
+    <t>3월26일</t>
+  </si>
+  <si>
+    <t>3월27일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>흑미밥</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>바지락순두부찌개</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>소고기감자국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>유부장국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈목살김치찌개</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>동태찌개</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>냉이돈불고기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가자미유린기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>중화제육면</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>오징어떡볶음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>치즈함박스테이크</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>맛살브로컬리볶음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>비엔나메추리알조림</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>오징어,양파링튀김</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>매운계란말이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>호박양념볶음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프무쌈말이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>쥐어채조림</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>부들어묵꽈초조림</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>톳두부무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>쫄면야채무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>땅콩조림</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>물미역초무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>단무지부추무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>상추쑥갓무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>토마토그린샐러드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>열무나물</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>(셀프충무김밥)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>참치김치찌개</t>
+  </si>
+  <si>
+    <t>꼬지어묵우동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선짓국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>표고미역국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식잡채</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>충무식오징어무침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>두부양념구이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>묵은지오리불고기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안동찜닭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사천짜장소스</t>
+  </si>
+  <si>
+    <t>셀프김</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>동그랑땡조림</t>
+  </si>
+  <si>
+    <t>궁중떡볶이</t>
+  </si>
+  <si>
+    <t>수제야채튀김</t>
+  </si>
+  <si>
+    <t>과일야채샐러드</t>
+  </si>
+  <si>
+    <t>오지치즈후라이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자채볶음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미역줄기맛살볶음</t>
+  </si>
+  <si>
+    <t>동부묵김가루무침</t>
+  </si>
+  <si>
+    <t>세발나물무침</t>
+  </si>
+  <si>
+    <t>석박지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>양념깻잎지</t>
   </si>
   <si>
     <t>고춧잎무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미나리초장무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>깻잎지무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>청경채무침</t>
+  </si>
+  <si>
+    <t>짜사이채무침</t>
+  </si>
+  <si>
+    <t xml:space="preserve">포기김치 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>양파장아찌</t>
+  </si>
+  <si>
+    <t>돈나물초장무침</t>
+  </si>
+  <si>
+    <t>참나물들깨소스무침</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -677,88 +682,118 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>요구르트</t>
+  </si>
+  <si>
     <t xml:space="preserve">포기김치 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>생강차</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>매실차</t>
+  </si>
+  <si>
+    <t>수정과</t>
+  </si>
+  <si>
+    <t>녹차</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>유자차</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>커피</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3월16일 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월17일</t>
-  </si>
-  <si>
-    <t>3월18일</t>
-  </si>
-  <si>
-    <t>3월19일</t>
-  </si>
-  <si>
-    <t>3월20일</t>
-  </si>
-  <si>
-    <t>Clam and Soft Tofu Stew</t>
-  </si>
-  <si>
-    <t>shepherd's purse bulgogi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stir-fried Crab Broccoli</t>
-  </si>
-  <si>
-    <t>self radish wraps</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">boiled peanut </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">young radish  Seasoned Vegetables </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ginger tea </t>
-  </si>
-  <si>
-    <t>Braised Vienna quail eggs</t>
-  </si>
-  <si>
-    <t>braised dried filefish</t>
-  </si>
-  <si>
-    <t>Seasoned red pepper leaves</t>
-  </si>
-  <si>
-    <t>Green Plum Tea</t>
+  </si>
+  <si>
+    <t>메밀차</t>
+  </si>
+  <si>
+    <t>Tuna kimchi stew</t>
+  </si>
+  <si>
+    <t>japchae</t>
+  </si>
+  <si>
+    <t>Sichuan Black Bean Sauce</t>
+  </si>
+  <si>
+    <t>fruit salad</t>
+  </si>
+  <si>
+    <t>Seasoned Vegetables</t>
+  </si>
+  <si>
+    <t>Jasai vegetables</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cinnamon Punch</t>
+  </si>
+  <si>
+    <t>fish cake udon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chungmu-style squid stirfry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">self chungmu-style gimbap </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>self laver</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oji cheese fry</t>
+  </si>
+  <si>
+    <t>seokbakji</t>
+  </si>
+  <si>
+    <t>yogurt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blood Soup</t>
+  </si>
+  <si>
+    <t>Grilled tofu seasoning</t>
+  </si>
+  <si>
+    <t>braised meatballs</t>
+  </si>
+  <si>
+    <t>Stir-fried Shredded Potatoes</t>
+  </si>
+  <si>
+    <t>seasoned dried blue</t>
+  </si>
+  <si>
+    <t>건파래무침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>onion pickle</t>
+  </si>
+  <si>
+    <t>green tea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shiitake seaweed soup</t>
+  </si>
+  <si>
+    <t>Mugeunji Duck Bulgogi</t>
+  </si>
+  <si>
+    <t>a royal ddeokbok</t>
+  </si>
+  <si>
+    <t>Stir-fried Seaweed Straw Meat</t>
+  </si>
+  <si>
+    <t>seasoned perilla leaf paper</t>
   </si>
   <si>
     <t>steamed black rice</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>beef potato soup</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">seaweed Vinegar Dressing </t>
+    <t>a sedum seasoned red pepper paste</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -766,79 +801,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">fried tofu Clear Soybean Soup </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>neutralize pork nuddle</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deep-fried Squid and onion ring</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> boiled fish cake pepper </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Pickled radish and chives </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>seasoned parsley and vinegar</t>
-  </si>
-  <si>
-    <t>pork kimchi stew</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stir-fried squid tteok</t>
-  </si>
-  <si>
-    <t>spicy Rolled Omelet</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>a bundle tofu vegetables</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seasoned red pepper paste</t>
-  </si>
-  <si>
-    <t>Seasoned sesame leaves</t>
-  </si>
-  <si>
-    <t>kimchi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Citrus Tea</t>
-  </si>
-  <si>
-    <t>Pollack Stew</t>
-  </si>
-  <si>
-    <t>cheese hamburger steak</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stir-fried pumpkin seasoning</t>
-  </si>
-  <si>
-    <t>Spicy Seafood Noodles</t>
-  </si>
-  <si>
-    <t>tomato green salad</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bible debt gauge</t>
-  </si>
-  <si>
-    <t>coffee</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>소고기떡국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>beef rice cake soup</t>
+  </si>
+  <si>
+    <t>Andong-style Braised Spicy Chicken with Vegetables</t>
+  </si>
+  <si>
+    <t>fried handmade vegetables</t>
+  </si>
+  <si>
+    <t>cowpea paste Powdery Seasoned Seaweed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sliced sesame sauce</t>
+  </si>
+  <si>
+    <t>Buckwheat tea</t>
   </si>
 </sst>
 </file>
@@ -849,7 +832,7 @@
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1082,25 +1065,38 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="빙그레 메로나체"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="1훈떡볶이 R"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1135,7 +1131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1378,19 +1374,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1399,19 +1382,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1518,6 +1488,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1534,7 +1547,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1568,9 +1581,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1589,95 +1599,83 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="33" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="33" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="22" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="31" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="32" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="32" fillId="2" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1709,7 +1707,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1717,15 +1715,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1760,14 +1749,23 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2554,7 +2552,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2570,56 +2568,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="51" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -2627,7 +2625,7 @@
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1">
       <c r="A5" s="8"/>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="48" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -2648,330 +2646,330 @@
     </row>
     <row r="6" spans="1:11" ht="25.5" customHeight="1" thickBot="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>115</v>
+      <c r="B6" s="49"/>
+      <c r="C6" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>74</v>
+      <c r="C7" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="26.25" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>79</v>
+      <c r="B8" s="51"/>
+      <c r="C8" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="29.25" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>84</v>
+      <c r="B9" s="51"/>
+      <c r="C9" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="27.75" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>89</v>
+      <c r="B10" s="51"/>
+      <c r="C10" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>94</v>
+      <c r="B11" s="51"/>
+      <c r="C11" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1">
       <c r="A12" s="8"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>99</v>
+      <c r="B12" s="51"/>
+      <c r="C12" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1">
       <c r="A13" s="8"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>104</v>
+      <c r="B13" s="51"/>
+      <c r="C13" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="27.75" customHeight="1">
       <c r="A14" s="8"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>105</v>
+      <c r="B14" s="51"/>
+      <c r="C14" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A15" s="8"/>
-      <c r="B15" s="57"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>110</v>
+        <v>114</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A16" s="8"/>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="21" hidden="1" customHeight="1">
       <c r="A17" s="8"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="54"/>
+      <c r="C17" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="21" hidden="1" customHeight="1">
       <c r="A18" s="8"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="13" t="s">
+      <c r="B18" s="54"/>
+      <c r="C18" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="21" hidden="1" customHeight="1">
       <c r="A19" s="8"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="54"/>
+      <c r="C19" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="23.25" hidden="1" customHeight="1">
       <c r="A20" s="8"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="54"/>
+      <c r="C20" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="21" hidden="1" customHeight="1" thickBot="1">
       <c r="A21" s="8"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="14" t="s">
+      <c r="B21" s="55"/>
+      <c r="C21" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="31.5" customHeight="1" thickBot="1">
       <c r="A22" s="8"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="61" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="63"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="72"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
     </row>
     <row r="31" spans="1:7">
       <c r="B31" s="1"/>
@@ -3020,7 +3018,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3036,41 +3034,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -3082,17 +3080,17 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="67"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" thickBot="1">
-      <c r="B5" s="68"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="19" t="s">
         <v>26</v>
       </c>
@@ -3110,187 +3108,187 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B6" s="69"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="21">
-        <v>43906</v>
-      </c>
-      <c r="D6" s="22">
-        <v>43907</v>
-      </c>
-      <c r="E6" s="22">
-        <v>43908</v>
-      </c>
-      <c r="F6" s="22">
-        <v>43909</v>
-      </c>
-      <c r="G6" s="22">
-        <v>43910</v>
+        <v>43913</v>
+      </c>
+      <c r="D6" s="21">
+        <v>43914</v>
+      </c>
+      <c r="E6" s="21">
+        <v>43915</v>
+      </c>
+      <c r="F6" s="21">
+        <v>43916</v>
+      </c>
+      <c r="G6" s="21">
+        <v>43917</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1">
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="33" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="8" spans="1:11" ht="26.25" customHeight="1">
-      <c r="B8" s="71"/>
-      <c r="C8" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="36" t="s">
+      <c r="B8" s="63"/>
+      <c r="C8" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="29.25" customHeight="1">
+      <c r="B9" s="63"/>
+      <c r="C9" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="27.75" customHeight="1">
+      <c r="B10" s="63"/>
+      <c r="C10" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E10" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1">
+      <c r="B11" s="63"/>
+      <c r="C11" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="27.75" customHeight="1">
+      <c r="B12" s="63"/>
+      <c r="C12" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="27.75" customHeight="1">
+      <c r="B13" s="63"/>
+      <c r="C13" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="27.75" customHeight="1">
+      <c r="B14" s="63"/>
+      <c r="C14" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="29.25" customHeight="1">
-      <c r="B9" s="71"/>
-      <c r="C9" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="27.75" customHeight="1">
-      <c r="B10" s="71"/>
-      <c r="C10" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10" s="40" t="s">
+      <c r="E14" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" customHeight="1" thickBot="1">
+      <c r="B15" s="64"/>
+      <c r="C15" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="G10" s="41" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1">
-      <c r="B11" s="71"/>
-      <c r="C11" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="27.75" customHeight="1">
-      <c r="B12" s="71"/>
-      <c r="C12" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="27.75" customHeight="1">
-      <c r="B13" s="71"/>
-      <c r="C13" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="41" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="27.75" customHeight="1">
-      <c r="B14" s="71"/>
-      <c r="C14" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="72"/>
-      <c r="C15" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>151</v>
+      <c r="F15" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" hidden="1" customHeight="1">
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="65" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -3310,7 +3308,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="21" hidden="1" customHeight="1">
-      <c r="B17" s="74"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
@@ -3328,7 +3326,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="21" hidden="1" customHeight="1">
-      <c r="B18" s="74"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="5" t="s">
         <v>30</v>
       </c>
@@ -3346,7 +3344,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="21" hidden="1" customHeight="1">
-      <c r="B19" s="74"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="5" t="s">
         <v>31</v>
       </c>
@@ -3364,7 +3362,7 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="23.25" hidden="1" customHeight="1">
-      <c r="B20" s="74"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="5" t="s">
         <v>8</v>
       </c>
@@ -3382,42 +3380,42 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="21" hidden="1" customHeight="1" thickBot="1">
-      <c r="B21" s="74"/>
-      <c r="C21" s="17" t="s">
+      <c r="B21" s="66"/>
+      <c r="C21" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="31.5" customHeight="1" thickBot="1">
-      <c r="B22" s="18"/>
-      <c r="C22" s="75" t="s">
+      <c r="B22" s="17"/>
+      <c r="C22" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="77"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="69"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="1"/>
@@ -3456,11 +3454,10 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" location="/entry/enko/1e630999d4634cc6b1593b67df221889" display="/entry/enko/1e630999d4634cc6b1593b67df221889"/>
-    <hyperlink ref="C15" r:id="rId2" location="/entry/enko/ee52046d6cef43d18bae028a57795c10" display="/entry/enko/ee52046d6cef43d18bae028a57795c10"/>
+    <hyperlink ref="D12" r:id="rId1" location="/entry/enko/d5ba94604ca74376b0ca75700a5c2d73" display="https://en.dict.naver.com/ - /entry/enko/d5ba94604ca74376b0ca75700a5c2d73"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/foodtable/3.xlsx
+++ b/foodtable/3.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 복리후생\2017년\3. 식당\2020년 식단표\0323\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 복리후생\2017년\3. 식당\2020년 식단표\0330\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
-    <sheet name="3.23-3.27" sheetId="3" r:id="rId1"/>
-    <sheet name="3.23-3.27(영)" sheetId="2" r:id="rId2"/>
+    <sheet name="3.30-4.3" sheetId="3" r:id="rId1"/>
+    <sheet name="3.30-4.3(영)" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="156">
   <si>
     <t>석식</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -545,255 +545,272 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Seasoned Vegetables</t>
+  </si>
+  <si>
+    <t>흑미밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>포기김치</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>깍두기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*뼈다귀감자탕*</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*취나물밥&amp;양념장*</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>북어해장국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕만두국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>청국장찌개</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경상도식소고기무국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듬돈장조림</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>해물콩나물찜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>메밀전병&amp;양념장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우불고기당면볶음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고갈비</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중화풍느타리버섯볶음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>새송이전&amp;양념장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마약계란</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>매콤감자조림</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>새우살호박볶음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유부맛살겨자냉채</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리얼채소찹샐러드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가지양념찜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구이김</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>연근타르타르범벅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>풋마늘오이무침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>근대된장나물</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이지무침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩나물무침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김가루쪽파무침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>향야채겉절이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬시래기양파무침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부추겉절이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">포기김치 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시금치나물무침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스복분자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>매실차</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>페퍼민트차</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>쟈스민차</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>단호박식혜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3월30일 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월31일</t>
+  </si>
+  <si>
+    <t>4월1일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월2일</t>
+  </si>
+  <si>
+    <t>4월3일</t>
+  </si>
+  <si>
+    <t>Dried Pollack Hangover Soup</t>
+  </si>
+  <si>
+    <t>pork boiled in soy</t>
+  </si>
+  <si>
+    <t>Stir-fried oyster mushroom</t>
+  </si>
+  <si>
+    <t>Fried tofu and vegetables</t>
+  </si>
+  <si>
+    <t>green garlic cucumber salad</t>
+  </si>
+  <si>
+    <t>pickled vegetables</t>
+  </si>
+  <si>
     <t>kimchi</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Seasoned red pepper leaves</t>
-  </si>
-  <si>
-    <t>Citrus Tea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3월23일 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월24일</t>
-  </si>
-  <si>
-    <t>3월25일</t>
-  </si>
-  <si>
-    <t>3월26일</t>
-  </si>
-  <si>
-    <t>3월27일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>흑미밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(셀프충무김밥)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>참치김치찌개</t>
-  </si>
-  <si>
-    <t>꼬지어묵우동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>선짓국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>표고미역국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>한식잡채</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>충무식오징어무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>두부양념구이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>묵은지오리불고기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>안동찜닭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사천짜장소스</t>
-  </si>
-  <si>
-    <t>셀프김</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>동그랑땡조림</t>
-  </si>
-  <si>
-    <t>궁중떡볶이</t>
-  </si>
-  <si>
-    <t>수제야채튀김</t>
-  </si>
-  <si>
-    <t>과일야채샐러드</t>
-  </si>
-  <si>
-    <t>오지치즈후라이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>감자채볶음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미역줄기맛살볶음</t>
-  </si>
-  <si>
-    <t>동부묵김가루무침</t>
-  </si>
-  <si>
-    <t>세발나물무침</t>
-  </si>
-  <si>
-    <t>석박지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>양념깻잎지</t>
-  </si>
-  <si>
-    <t>고춧잎무침</t>
-  </si>
-  <si>
-    <t>짜사이채무침</t>
-  </si>
-  <si>
-    <t xml:space="preserve">포기김치 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>양파장아찌</t>
-  </si>
-  <si>
-    <t>돈나물초장무침</t>
-  </si>
-  <si>
-    <t>참나물들깨소스무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>포기김치</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구르트</t>
-  </si>
-  <si>
-    <t xml:space="preserve">포기김치 </t>
-  </si>
-  <si>
-    <t>수정과</t>
-  </si>
-  <si>
-    <t>녹차</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>유자차</t>
-  </si>
-  <si>
-    <t>메밀차</t>
-  </si>
-  <si>
-    <t>Tuna kimchi stew</t>
-  </si>
-  <si>
-    <t>japchae</t>
-  </si>
-  <si>
-    <t>Sichuan Black Bean Sauce</t>
-  </si>
-  <si>
-    <t>fruit salad</t>
-  </si>
-  <si>
-    <t>Seasoned Vegetables</t>
-  </si>
-  <si>
-    <t>Jasai vegetables</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cinnamon Punch</t>
-  </si>
-  <si>
-    <t>fish cake udon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chungmu-style squid stirfry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">self chungmu-style gimbap </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>self laver</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oji cheese fry</t>
-  </si>
-  <si>
-    <t>seokbakji</t>
-  </si>
-  <si>
-    <t>yogurt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blood Soup</t>
-  </si>
-  <si>
-    <t>Grilled tofu seasoning</t>
-  </si>
-  <si>
-    <t>braised meatballs</t>
-  </si>
-  <si>
-    <t>Stir-fried Shredded Potatoes</t>
-  </si>
-  <si>
-    <t>seasoned dried blue</t>
-  </si>
-  <si>
-    <t>건파래무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>onion pickle</t>
-  </si>
-  <si>
-    <t>green tea</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shiitake seaweed soup</t>
-  </si>
-  <si>
-    <t>Mugeunji Duck Bulgogi</t>
-  </si>
-  <si>
-    <t>a royal ddeokbok</t>
-  </si>
-  <si>
-    <t>Stir-fried Seaweed Straw Meat</t>
-  </si>
-  <si>
-    <t>seasoned perilla leaf paper</t>
+    <t>Green Plum Tea</t>
+  </si>
+  <si>
+    <t>king dumpling soup</t>
+  </si>
+  <si>
+    <t>Steamed Seafood Bean Sprout</t>
+  </si>
+  <si>
+    <t>Saesongi mushroom pancake</t>
+  </si>
+  <si>
+    <t>cereal vegetable salad</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sea string onion vegetables</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peppermint tea</t>
+  </si>
+  <si>
+    <t>bone potato soup</t>
+  </si>
+  <si>
+    <t>Buckwheat Crepe</t>
+  </si>
+  <si>
+    <t>braised eggplant</t>
+  </si>
+  <si>
+    <t>Steamed cucumber</t>
+  </si>
+  <si>
+    <t>chives and leeks</t>
+  </si>
+  <si>
+    <t>kkakdugi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jasmin tea </t>
   </si>
   <si>
     <t>steamed black rice</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>a sedum seasoned red pepper paste</t>
+    <t>addictive egg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rich Soybean Paste Stew</t>
+  </si>
+  <si>
+    <t>Stir-fried Beef Noodles</t>
+  </si>
+  <si>
+    <t>Braised Spicy Potato Chili Pepper</t>
+  </si>
+  <si>
+    <t>Grilled Seaweed</t>
+  </si>
+  <si>
+    <t>Seasoned Bean Sprouts</t>
+  </si>
+  <si>
+    <t>chwinamul rice</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -801,27 +818,29 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>소고기떡국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>beef rice cake soup</t>
-  </si>
-  <si>
-    <t>Andong-style Braised Spicy Chicken with Vegetables</t>
-  </si>
-  <si>
-    <t>fried handmade vegetables</t>
-  </si>
-  <si>
-    <t>cowpea paste Powdery Seasoned Seaweed</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sliced sesame sauce</t>
-  </si>
-  <si>
-    <t>Buckwheat tea</t>
+    <t>ice Raspberry Juice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beef radish soup</t>
+  </si>
+  <si>
+    <t>Grilled mackerel sauce</t>
+  </si>
+  <si>
+    <t>Stir-fried Zucchini and Shrimps</t>
+  </si>
+  <si>
+    <t>lotus root tartar bulk</t>
+  </si>
+  <si>
+    <t>seasoned dried seaweed flakes</t>
+  </si>
+  <si>
+    <t>Seasoned Spinach</t>
+  </si>
+  <si>
+    <t>sweet pumpkin sikhye</t>
   </si>
 </sst>
 </file>
@@ -832,7 +851,7 @@
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1028,40 +1047,10 @@
       <charset val="129"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1094,9 +1083,25 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1131,7 +1136,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1335,32 +1340,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1422,19 +1401,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1519,10 +1485,90 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1532,7 +1578,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1542,12 +1588,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1599,82 +1641,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="27" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="31" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="32" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="32" fillId="2" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="28" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1707,7 +1686,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1728,10 +1707,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1743,36 +1722,119 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="5" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="5" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
     <cellStyle name="표준 2 2 2" xfId="2"/>
-    <cellStyle name="하이퍼링크" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2329,7 +2391,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2364,7 +2426,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2552,7 +2614,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2568,41 +2630,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -2614,10 +2676,10 @@
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="47"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -2625,7 +2687,7 @@
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1">
       <c r="A5" s="8"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="27" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -2646,197 +2708,197 @@
     </row>
     <row r="6" spans="1:11" ht="25.5" customHeight="1" thickBot="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>80</v>
+      <c r="B6" s="28"/>
+      <c r="C6" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>81</v>
+      <c r="C7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="26.25" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>148</v>
+      <c r="B8" s="30"/>
+      <c r="C8" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="29.25" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="27" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="57" t="s">
         <v>87</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="27.75" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="27" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="57" t="s">
         <v>92</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="27" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="57" t="s">
         <v>97</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1">
       <c r="A12" s="8"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="27" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="57" t="s">
         <v>102</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1">
       <c r="A13" s="8"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="27" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="G13" s="57" t="s">
         <v>107</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="27.75" customHeight="1">
       <c r="A14" s="8"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>111</v>
+      <c r="B14" s="30"/>
+      <c r="C14" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="57" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A15" s="8"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>117</v>
+      <c r="B15" s="31"/>
+      <c r="C15" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A16" s="8"/>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="32" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -2857,7 +2919,7 @@
     </row>
     <row r="17" spans="1:7" ht="21" hidden="1" customHeight="1">
       <c r="A17" s="8"/>
-      <c r="B17" s="54"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="12" t="s">
         <v>47</v>
       </c>
@@ -2876,7 +2938,7 @@
     </row>
     <row r="18" spans="1:7" ht="21" hidden="1" customHeight="1">
       <c r="A18" s="8"/>
-      <c r="B18" s="54"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="12" t="s">
         <v>52</v>
       </c>
@@ -2895,7 +2957,7 @@
     </row>
     <row r="19" spans="1:7" ht="21" hidden="1" customHeight="1">
       <c r="A19" s="8"/>
-      <c r="B19" s="54"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="12" t="s">
         <v>57</v>
       </c>
@@ -2914,7 +2976,7 @@
     </row>
     <row r="20" spans="1:7" ht="23.25" hidden="1" customHeight="1">
       <c r="A20" s="8"/>
-      <c r="B20" s="54"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="12" t="s">
         <v>62</v>
       </c>
@@ -2933,7 +2995,7 @@
     </row>
     <row r="21" spans="1:7" ht="21" hidden="1" customHeight="1" thickBot="1">
       <c r="A21" s="8"/>
-      <c r="B21" s="55"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="13" t="s">
         <v>44</v>
       </c>
@@ -2953,23 +3015,23 @@
     <row r="22" spans="1:7" ht="31.5" customHeight="1" thickBot="1">
       <c r="A22" s="8"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="72"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="51"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="31" spans="1:7">
       <c r="B31" s="1"/>
@@ -3018,7 +3080,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="C24" sqref="C24:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3034,41 +3096,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -3080,215 +3142,215 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="59"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" thickBot="1">
-      <c r="B5" s="60"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B6" s="61"/>
-      <c r="C6" s="21">
-        <v>43913</v>
-      </c>
-      <c r="D6" s="21">
-        <v>43914</v>
-      </c>
-      <c r="E6" s="21">
-        <v>43915</v>
-      </c>
-      <c r="F6" s="21">
-        <v>43916</v>
-      </c>
-      <c r="G6" s="21">
-        <v>43917</v>
+      <c r="B6" s="40"/>
+      <c r="C6" s="20">
+        <v>43920</v>
+      </c>
+      <c r="D6" s="20">
+        <v>43921</v>
+      </c>
+      <c r="E6" s="20">
+        <v>43922</v>
+      </c>
+      <c r="F6" s="20">
+        <v>43923</v>
+      </c>
+      <c r="G6" s="20">
+        <v>43924</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" s="67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="26.25" customHeight="1">
+      <c r="B8" s="42"/>
+      <c r="C8" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="69" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="29.25" customHeight="1">
+      <c r="B9" s="42"/>
+      <c r="C9" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="36" t="s">
+      <c r="E9" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="70" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="27.75" customHeight="1">
+      <c r="B10" s="42"/>
+      <c r="C10" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="69" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1">
+      <c r="B11" s="42"/>
+      <c r="C11" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="70" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="27.75" customHeight="1">
+      <c r="B12" s="42"/>
+      <c r="C12" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="G7" s="36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="26.25" customHeight="1">
-      <c r="B8" s="63"/>
-      <c r="C8" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="38" t="s">
+      <c r="G12" s="70" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="27.75" customHeight="1">
+      <c r="B13" s="42"/>
+      <c r="C13" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="69" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="27.75" customHeight="1">
+      <c r="B14" s="42"/>
+      <c r="C14" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="74" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" customHeight="1" thickBot="1">
+      <c r="B15" s="43"/>
+      <c r="C15" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="29.25" customHeight="1">
-      <c r="B9" s="63"/>
-      <c r="C9" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="27.75" customHeight="1">
-      <c r="B10" s="63"/>
-      <c r="C10" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1">
-      <c r="B11" s="63"/>
-      <c r="C11" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="27.75" customHeight="1">
-      <c r="B12" s="63"/>
-      <c r="C12" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="27.75" customHeight="1">
-      <c r="B13" s="63"/>
-      <c r="C13" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="36" t="s">
+      <c r="D15" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="27.75" customHeight="1">
-      <c r="B14" s="63"/>
-      <c r="C14" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="64"/>
-      <c r="C15" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="41" t="s">
-        <v>154</v>
+      <c r="F15" s="78"/>
+      <c r="G15" s="79" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" hidden="1" customHeight="1">
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -3308,7 +3370,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="21" hidden="1" customHeight="1">
-      <c r="B17" s="66"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
@@ -3326,7 +3388,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="21" hidden="1" customHeight="1">
-      <c r="B18" s="66"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="5" t="s">
         <v>30</v>
       </c>
@@ -3344,7 +3406,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="21" hidden="1" customHeight="1">
-      <c r="B19" s="66"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="5" t="s">
         <v>31</v>
       </c>
@@ -3362,7 +3424,7 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="23.25" hidden="1" customHeight="1">
-      <c r="B20" s="66"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="5" t="s">
         <v>8</v>
       </c>
@@ -3380,7 +3442,7 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="21" hidden="1" customHeight="1" thickBot="1">
-      <c r="B21" s="66"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="16" t="s">
         <v>14</v>
       </c>
@@ -3399,23 +3461,23 @@
     </row>
     <row r="22" spans="2:7" ht="31.5" customHeight="1" thickBot="1">
       <c r="B22" s="17"/>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="69"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="1"/>
@@ -3453,11 +3515,8 @@
     <mergeCell ref="C22:G22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D12" r:id="rId1" location="/entry/enko/d5ba94604ca74376b0ca75700a5c2d73" display="https://en.dict.naver.com/ - /entry/enko/d5ba94604ca74376b0ca75700a5c2d73"/>
-  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/foodtable/3.xlsx
+++ b/foodtable/3.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 복리후생\2017년\3. 식당\2020년 식단표\0330\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 복리후생\2017년\3. 식당\2020년 식단표\0406\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
-    <sheet name="3.30-4.3" sheetId="3" r:id="rId1"/>
-    <sheet name="3.30-4.3(영)" sheetId="2" r:id="rId2"/>
+    <sheet name="4.6-4.10" sheetId="3" r:id="rId1"/>
+    <sheet name="4.6-4.10(영)" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -404,26 +404,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>월</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>화</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>목</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>금</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">포기김치 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -545,302 +525,321 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Seasoned Vegetables</t>
+    <t>kimchi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chives and leeks</t>
+  </si>
+  <si>
+    <t>kkakdugi</t>
+  </si>
+  <si>
+    <t>Braised Spicy Potato Chili Pepper</t>
   </si>
   <si>
     <t>흑미밥</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>*영양닭죽*</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치수제비국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>근대된장국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>순두부짬뽕국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가백미밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>들깨미역국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간찜닭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수육</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿔바로우탕수육</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨또띠아</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>매콤돼지강정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>단호박범벅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비빔막국수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>짜장떡볶이</t>
+  </si>
+  <si>
+    <t>알감자고추장조림</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>물만두야채무침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅콩조림</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오징어젓갈무침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미나리생채</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>무말랭이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부들어묵볶음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>열무생채</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듬쌈&amp;쌈장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>치커리만다린샐러드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부추겉절이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>연두부&amp;양념장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙주나물무침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>양파장아찌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>단무지부추무침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈나물물김치</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>청경채생채</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>포기김치</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">포기김치 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>깍두기</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>*뼈다귀감자탕*</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*취나물밥&amp;양념장*</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>북어해장국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>왕만두국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>청국장찌개</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>경상도식소고기무국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>모듬돈장조림</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>해물콩나물찜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>메밀전병&amp;양념장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>우불고기당면볶음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>고갈비</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>중화풍느타리버섯볶음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>새송이전&amp;양념장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>마약계란</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>매콤감자조림</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>새우살호박볶음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>유부맛살겨자냉채</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리얼채소찹샐러드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가지양념찜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>구이김</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>연근타르타르범벅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>풋마늘오이무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>근대된장나물</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>오이지무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>콩나물무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김가루쪽파무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>향야채겉절이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼬시래기양파무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>부추겉절이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">포기김치 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>시금치나물무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이스복분자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>매실차</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>페퍼민트차</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>쟈스민차</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>단호박식혜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3월30일 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월31일</t>
-  </si>
-  <si>
-    <t>4월1일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4월2일</t>
-  </si>
-  <si>
-    <t>4월3일</t>
-  </si>
-  <si>
-    <t>Dried Pollack Hangover Soup</t>
-  </si>
-  <si>
-    <t>pork boiled in soy</t>
-  </si>
-  <si>
-    <t>Stir-fried oyster mushroom</t>
-  </si>
-  <si>
-    <t>Fried tofu and vegetables</t>
-  </si>
-  <si>
-    <t>green garlic cucumber salad</t>
-  </si>
-  <si>
-    <t>pickled vegetables</t>
+    <t>아이스수정과</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>국화차</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스레몬에이드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>목</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>금</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4월6일 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월7일</t>
+  </si>
+  <si>
+    <t>4월8일</t>
+  </si>
+  <si>
+    <t>4월9일</t>
+  </si>
+  <si>
+    <t>4월10일</t>
+  </si>
+  <si>
+    <t>Kimchi sujebi soup</t>
+  </si>
+  <si>
+    <t>Braised Spicy Chicken with Vegetables</t>
+  </si>
+  <si>
+    <t>sweet pumpkin salad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peanut boiled down in soy sauce </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>young radish salad</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>seasoned bean sprouts</t>
+  </si>
+  <si>
+    <t>cherry blossom popcorn</t>
+  </si>
+  <si>
+    <t>벚꽃팝콘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geundae-doenjang-guk</t>
+  </si>
+  <si>
+    <t>Boiled Beef or Pork Slices</t>
+  </si>
+  <si>
+    <t>Spicy Buckwheat Noodles</t>
+  </si>
+  <si>
+    <t>salted and fermented squid</t>
+  </si>
+  <si>
+    <t>assorted wrap</t>
+  </si>
+  <si>
+    <t>onion pickle</t>
+  </si>
+  <si>
+    <t>ice Cinnamon Punch</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>soft tofu jjamppong soup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep-fried Chicken in Hot Pepper Sauce </t>
+  </si>
+  <si>
+    <t>Jjajang tteokbokki</t>
+  </si>
+  <si>
+    <t>water parsley raw vegetables</t>
+  </si>
+  <si>
+    <t>chicory mandarin salad</t>
+  </si>
+  <si>
+    <t>Pickled radish</t>
+  </si>
+  <si>
+    <t>Chrysanthemum Tea</t>
+  </si>
+  <si>
+    <t>steamed black rice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deluxe Chicken Rice Porridge</t>
+  </si>
+  <si>
+    <t>extra rice</t>
+  </si>
+  <si>
+    <t>Chicken tortilla</t>
+  </si>
+  <si>
+    <t>dried slices of daikon</t>
+  </si>
+  <si>
+    <t>Watery Kimchi</t>
+  </si>
+  <si>
+    <t>perilla seed seaweed soup</t>
+  </si>
+  <si>
+    <t>Fried Dumplings with Vegetables in Spicy Sauce</t>
+  </si>
+  <si>
+    <t>Stir-fried Rice Cake</t>
+  </si>
+  <si>
+    <t>Silken Beancurd</t>
+  </si>
+  <si>
+    <t>pork gangjeong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pak Choi salad</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>kimchi</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Green Plum Tea</t>
-  </si>
-  <si>
-    <t>king dumpling soup</t>
-  </si>
-  <si>
-    <t>Steamed Seafood Bean Sprout</t>
-  </si>
-  <si>
-    <t>Saesongi mushroom pancake</t>
-  </si>
-  <si>
-    <t>cereal vegetable salad</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sea string onion vegetables</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peppermint tea</t>
-  </si>
-  <si>
-    <t>bone potato soup</t>
-  </si>
-  <si>
-    <t>Buckwheat Crepe</t>
-  </si>
-  <si>
-    <t>braised eggplant</t>
-  </si>
-  <si>
-    <t>Steamed cucumber</t>
-  </si>
-  <si>
-    <t>chives and leeks</t>
-  </si>
-  <si>
-    <t>kkakdugi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jasmin tea </t>
-  </si>
-  <si>
-    <t>steamed black rice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>addictive egg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rich Soybean Paste Stew</t>
-  </si>
-  <si>
-    <t>Stir-fried Beef Noodles</t>
-  </si>
-  <si>
-    <t>Braised Spicy Potato Chili Pepper</t>
-  </si>
-  <si>
-    <t>Grilled Seaweed</t>
-  </si>
-  <si>
-    <t>Seasoned Bean Sprouts</t>
-  </si>
-  <si>
-    <t>chwinamul rice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>kimchi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ice Raspberry Juice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beef radish soup</t>
-  </si>
-  <si>
-    <t>Grilled mackerel sauce</t>
-  </si>
-  <si>
-    <t>Stir-fried Zucchini and Shrimps</t>
-  </si>
-  <si>
-    <t>lotus root tartar bulk</t>
-  </si>
-  <si>
-    <t>seasoned dried seaweed flakes</t>
-  </si>
-  <si>
-    <t>Seasoned Spinach</t>
-  </si>
-  <si>
-    <t>sweet pumpkin sikhye</t>
+    <t xml:space="preserve">ice Lemonade </t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -851,7 +850,7 @@
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1048,12 +1047,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="빙그레 메로나체"/>
@@ -1136,7 +1129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1214,21 +1207,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1295,36 +1273,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1443,13 +1391,24 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1458,15 +1417,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1479,102 +1436,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1589,7 +1451,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1605,31 +1467,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1638,23 +1494,62 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="27" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="28" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="27" fillId="2" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="27" fillId="2" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1677,22 +1572,31 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1707,128 +1611,35 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="5" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="5" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2391,7 +2202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2426,7 +2237,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2614,7 +2425,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2630,56 +2441,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A1" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="A1" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="26"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="37"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -2687,351 +2498,351 @@
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1">
       <c r="A5" s="8"/>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>42</v>
+      <c r="C5" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="25.5" customHeight="1" thickBot="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="21" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="D6" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="E6" s="23" t="s">
         <v>117</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="54" t="s">
-        <v>74</v>
+      <c r="B7" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="26.25" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="56" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="57" t="s">
-        <v>82</v>
+      <c r="D8" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="29.25" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="55" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>83</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="57" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="27.75" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="55" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>88</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" s="57" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="55" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="D11" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="57" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1">
       <c r="A12" s="8"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="55" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="D12" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="57" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1">
       <c r="A13" s="8"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="59" t="s">
+      <c r="B13" s="41"/>
+      <c r="C13" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>103</v>
-      </c>
-      <c r="D13" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="57" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="27.75" customHeight="1">
       <c r="A14" s="8"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="56" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="56" t="s">
+      <c r="G14" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="G14" s="57" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="60" t="s">
+      <c r="F15" s="19"/>
+      <c r="G15" s="19" t="s">
         <v>109</v>
-      </c>
-      <c r="D15" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="E15" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A16" s="8"/>
-      <c r="B16" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>46</v>
+      <c r="B16" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="21" hidden="1" customHeight="1">
       <c r="A17" s="8"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>51</v>
+      <c r="B17" s="44"/>
+      <c r="C17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="21" hidden="1" customHeight="1">
       <c r="A18" s="8"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>56</v>
+      <c r="B18" s="44"/>
+      <c r="C18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="21" hidden="1" customHeight="1">
       <c r="A19" s="8"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>61</v>
+      <c r="B19" s="44"/>
+      <c r="C19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="23.25" hidden="1" customHeight="1">
       <c r="A20" s="8"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>66</v>
+      <c r="B20" s="44"/>
+      <c r="C20" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="21" hidden="1" customHeight="1" thickBot="1">
       <c r="A21" s="8"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>44</v>
+      <c r="B21" s="45"/>
+      <c r="C21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="31.5" customHeight="1" thickBot="1">
       <c r="A22" s="8"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="51"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
     </row>
     <row r="31" spans="1:7">
       <c r="B31" s="1"/>
@@ -3080,7 +2891,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:F24"/>
+      <selection activeCell="D26" sqref="D26:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3096,41 +2907,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -3142,215 +2953,215 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="38"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" thickBot="1">
-      <c r="B5" s="39"/>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B6" s="40"/>
-      <c r="C6" s="20">
-        <v>43920</v>
-      </c>
-      <c r="D6" s="20">
-        <v>43921</v>
-      </c>
-      <c r="E6" s="20">
-        <v>43922</v>
-      </c>
-      <c r="F6" s="20">
-        <v>43923</v>
-      </c>
-      <c r="G6" s="20">
-        <v>43924</v>
+      <c r="B6" s="54"/>
+      <c r="C6" s="18">
+        <v>43927</v>
+      </c>
+      <c r="D6" s="18">
+        <v>43928</v>
+      </c>
+      <c r="E6" s="18">
+        <v>43929</v>
+      </c>
+      <c r="F6" s="18">
+        <v>43930</v>
+      </c>
+      <c r="G6" s="18">
+        <v>43931</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="65" t="s">
+      <c r="C7" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="26.25" customHeight="1">
+      <c r="B8" s="56"/>
+      <c r="C8" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="29.25" customHeight="1">
+      <c r="B9" s="56"/>
+      <c r="C9" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="27.75" customHeight="1">
+      <c r="B10" s="56"/>
+      <c r="C10" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1">
+      <c r="B11" s="56"/>
+      <c r="C11" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="27.75" customHeight="1">
+      <c r="B12" s="56"/>
+      <c r="C12" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="67" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="26.25" customHeight="1">
-      <c r="B8" s="42"/>
-      <c r="C8" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="65" t="s">
+      <c r="E12" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="27.75" customHeight="1">
+      <c r="B13" s="56"/>
+      <c r="C13" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="27.75" customHeight="1">
+      <c r="B14" s="56"/>
+      <c r="C14" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" customHeight="1" thickBot="1">
+      <c r="B15" s="57"/>
+      <c r="C15" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="66" t="s">
+      <c r="D15" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G8" s="69" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="29.25" customHeight="1">
-      <c r="B9" s="42"/>
-      <c r="C9" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="F9" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" s="70" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="27.75" customHeight="1">
-      <c r="B10" s="42"/>
-      <c r="C10" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="65" t="s">
-        <v>140</v>
-      </c>
-      <c r="F10" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="G10" s="69" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1">
-      <c r="B11" s="42"/>
-      <c r="C11" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="G11" s="70" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="27.75" customHeight="1">
-      <c r="B12" s="42"/>
-      <c r="C12" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="G12" s="70" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="27.75" customHeight="1">
-      <c r="B13" s="42"/>
-      <c r="C13" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="65" t="s">
-        <v>136</v>
-      </c>
-      <c r="F13" s="64" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="69" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="27.75" customHeight="1">
-      <c r="B14" s="42"/>
-      <c r="C14" s="72" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="73" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="F14" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="G14" s="74" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="43"/>
-      <c r="C15" s="75" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="76" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="77" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" s="78"/>
-      <c r="G15" s="79" t="s">
+      <c r="F15" s="25"/>
+      <c r="G15" s="29" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" hidden="1" customHeight="1">
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="58" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -3370,7 +3181,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="21" hidden="1" customHeight="1">
-      <c r="B17" s="45"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
@@ -3388,7 +3199,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="21" hidden="1" customHeight="1">
-      <c r="B18" s="45"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="5" t="s">
         <v>30</v>
       </c>
@@ -3406,7 +3217,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="21" hidden="1" customHeight="1">
-      <c r="B19" s="45"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="5" t="s">
         <v>31</v>
       </c>
@@ -3424,7 +3235,7 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="23.25" hidden="1" customHeight="1">
-      <c r="B20" s="45"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="5" t="s">
         <v>8</v>
       </c>
@@ -3442,42 +3253,42 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="21" hidden="1" customHeight="1" thickBot="1">
-      <c r="B21" s="45"/>
-      <c r="C21" s="16" t="s">
+      <c r="B21" s="59"/>
+      <c r="C21" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="31.5" customHeight="1" thickBot="1">
-      <c r="B22" s="17"/>
-      <c r="C22" s="46" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="62"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="1"/>

--- a/foodtable/3.xlsx
+++ b/foodtable/3.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 복리후생\2017년\3. 식당\2020년 식단표\0406\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 복리후생\2017년\3. 식당\2020년 식단표\0420\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
-    <sheet name="4.6-4.10" sheetId="3" r:id="rId1"/>
-    <sheet name="4.6-4.10(영)" sheetId="2" r:id="rId2"/>
+    <sheet name="4.20-4.23" sheetId="3" r:id="rId1"/>
+    <sheet name="4.20-4.23(영)" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="159">
   <si>
     <t>석식</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -525,168 +525,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>kimchi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>chives and leeks</t>
-  </si>
-  <si>
     <t>kkakdugi</t>
-  </si>
-  <si>
-    <t>Braised Spicy Potato Chili Pepper</t>
-  </si>
-  <si>
-    <t>흑미밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*영양닭죽*</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김치수제비국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>근대된장국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>순두부짬뽕국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가백미밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>들깨미역국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨간찜닭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>수육</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>꿔바로우탕수육</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>치킨또띠아</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>매콤돼지강정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>단호박범벅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>비빔막국수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>짜장떡볶이</t>
-  </si>
-  <si>
-    <t>알감자고추장조림</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>물만두야채무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>땅콩조림</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>오징어젓갈무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미나리생채</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>무말랭이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>부들어묵볶음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>열무생채</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>모듬쌈&amp;쌈장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>치커리만다린샐러드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>부추겉절이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>연두부&amp;양념장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙주나물무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>양파장아찌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>단무지부추무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈나물물김치</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>청경채생채</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>포기김치</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">포기김치 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>깍두기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이스수정과</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>국화차</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이스레몬에이드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>월</t>
@@ -709,128 +548,306 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">4월6일 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4월7일</t>
-  </si>
-  <si>
-    <t>4월8일</t>
-  </si>
-  <si>
-    <t>4월9일</t>
-  </si>
-  <si>
-    <t>4월10일</t>
-  </si>
-  <si>
-    <t>Kimchi sujebi soup</t>
-  </si>
-  <si>
-    <t>Braised Spicy Chicken with Vegetables</t>
-  </si>
-  <si>
-    <t>sweet pumpkin salad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peanut boiled down in soy sauce </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>young radish salad</t>
+    <t xml:space="preserve">4월20일 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월21일</t>
+  </si>
+  <si>
+    <t>4월22일</t>
+  </si>
+  <si>
+    <t>4월23일</t>
+  </si>
+  <si>
+    <t>4월24일</t>
+  </si>
+  <si>
+    <t>흑미밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>햄김치볶음밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*설렁탕&amp;소면사리*</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑미밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>소고기미역국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/계란후라이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼큰어묵국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>동태해장국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>청양풍제육불고기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유부쑥갓국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭불고기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배추전&amp;양념장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>떡갈비데리조림</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>매콤떡볶이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>불고기샐러드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어묵야채볶음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카레소스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미역줄기맛살볶음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수제양배추피클</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌀게무침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>야채스틱&amp;쌈장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유부맛살냉채</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듬쌈&amp;쌈장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅콩조림</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>청경채생채</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>양파장아찌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>치커리샐러드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩나물무침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김가루</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙주나물무침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>깍두기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>단무지무침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>포기김치</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">포기김치 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스복분자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스매실차</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정과</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스녹차</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>국화차</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beef Seaweed Soup</t>
+  </si>
+  <si>
+    <t>Stir-fried Spicy Pork</t>
+  </si>
+  <si>
+    <t>Spicy Tteokbokki</t>
+  </si>
+  <si>
+    <t>Stir-fried Seaweed Straw Meat</t>
+  </si>
+  <si>
+    <t>lettuce-wrapped rice</t>
+  </si>
+  <si>
+    <t>Seasoned Bean Sprouts</t>
+  </si>
+  <si>
+    <t>steamed black rice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">kimchi </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ice Green Plum Tea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hamkimchi Fried Rice</t>
+  </si>
+  <si>
+    <t>fried tofu mugwort</t>
+  </si>
+  <si>
+    <t>handmade cabbage pickle</t>
+  </si>
+  <si>
+    <t>braised peanuts</t>
+  </si>
+  <si>
+    <t>kimchi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chopped seaweeds or Seaweed flake</t>
+  </si>
+  <si>
+    <t>Cinnamon Punch</t>
+  </si>
+  <si>
+    <t>fried egg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulgogi salad</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kimchi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spicy Fish Cake Soup</t>
+  </si>
+  <si>
+    <t>Chicken Bulgogi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lotus root fry&amp;dried solen </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seasoned Crabs</t>
+  </si>
+  <si>
+    <t>Pak Choi salad</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>seasoned bean sprouts</t>
   </si>
   <si>
-    <t>cherry blossom popcorn</t>
-  </si>
-  <si>
-    <t>벚꽃팝콘</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geundae-doenjang-guk</t>
-  </si>
-  <si>
-    <t>Boiled Beef or Pork Slices</t>
-  </si>
-  <si>
-    <t>Spicy Buckwheat Noodles</t>
-  </si>
-  <si>
-    <t>salted and fermented squid</t>
-  </si>
-  <si>
-    <t>assorted wrap</t>
-  </si>
-  <si>
-    <t>onion pickle</t>
-  </si>
-  <si>
-    <t>ice Cinnamon Punch</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>soft tofu jjamppong soup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deep-fried Chicken in Hot Pepper Sauce </t>
-  </si>
-  <si>
-    <t>Jjajang tteokbokki</t>
-  </si>
-  <si>
-    <t>water parsley raw vegetables</t>
-  </si>
-  <si>
-    <t>chicory mandarin salad</t>
-  </si>
-  <si>
-    <t>Pickled radish</t>
+    <t>ice green tea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ox Bone Soup</t>
+  </si>
+  <si>
+    <t>Cabbage pancake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stir-fried boiled fish paste </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vegetable stick </t>
+  </si>
+  <si>
+    <t>vegetable salad</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ice Raspberry Wine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dongtae hangover soup</t>
+  </si>
+  <si>
+    <t>Tteokgalbi dejorim</t>
+  </si>
+  <si>
+    <t>curry sauce</t>
+  </si>
+  <si>
+    <t>seasoned pickled radish</t>
   </si>
   <si>
     <t>Chrysanthemum Tea</t>
   </si>
   <si>
-    <t>steamed black rice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deluxe Chicken Rice Porridge</t>
-  </si>
-  <si>
-    <t>extra rice</t>
-  </si>
-  <si>
-    <t>Chicken tortilla</t>
-  </si>
-  <si>
-    <t>dried slices of daikon</t>
-  </si>
-  <si>
-    <t>Watery Kimchi</t>
-  </si>
-  <si>
-    <t>perilla seed seaweed soup</t>
-  </si>
-  <si>
-    <t>Fried Dumplings with Vegetables in Spicy Sauce</t>
-  </si>
-  <si>
-    <t>Stir-fried Rice Cake</t>
-  </si>
-  <si>
-    <t>Silken Beancurd</t>
-  </si>
-  <si>
-    <t>pork gangjeong</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pak Choi salad</t>
+    <t>Stir-fried Glass Noodles with Fried Glass Noodles</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chycory salad</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -838,7 +855,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">ice Lemonade </t>
+    <t>연근튀김강정</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -850,7 +867,7 @@
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1070,13 +1087,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1091,10 +1101,25 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="MS PGothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1430,17 +1455,17 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1449,6 +1474,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="63">
@@ -1509,6 +1538,15 @@
     <xf numFmtId="177" fontId="26" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="22" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1524,32 +1562,23 @@
     <xf numFmtId="176" fontId="27" fillId="2" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="27" fillId="2" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1590,15 +1619,6 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1641,11 +1661,21 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
     <cellStyle name="표준 2 2 2" xfId="2"/>
+    <cellStyle name="하이퍼링크" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2202,7 +2232,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2237,7 +2267,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2425,7 +2455,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2501,39 +2531,39 @@
       <c r="B5" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>114</v>
+      <c r="C5" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="25.5" customHeight="1" thickBot="1">
       <c r="A6" s="8"/>
       <c r="B6" s="39"/>
-      <c r="C6" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>119</v>
+      <c r="C6" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1">
@@ -2541,170 +2571,170 @@
       <c r="B7" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>72</v>
+      <c r="C7" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="26.25" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="41"/>
-      <c r="C8" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>78</v>
+      <c r="C8" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="29.25" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="41"/>
-      <c r="C9" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>83</v>
+      <c r="C9" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="27.75" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="41"/>
-      <c r="C10" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>88</v>
+      <c r="C10" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="41"/>
-      <c r="C11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>93</v>
+      <c r="C11" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="41"/>
-      <c r="C12" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>98</v>
+      <c r="C12" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="41"/>
-      <c r="C13" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>103</v>
+      <c r="C13" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="27.75" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="41"/>
-      <c r="C14" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>104</v>
+      <c r="C14" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="42"/>
-      <c r="C15" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19" t="s">
-        <v>109</v>
+      <c r="C15" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" hidden="1" customHeight="1">
@@ -2826,13 +2856,13 @@
     <row r="22" spans="1:7" ht="31.5" customHeight="1" thickBot="1">
       <c r="A22" s="8"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="62"/>
     </row>
     <row r="24" spans="1:7">
       <c r="C24" s="33"/>
@@ -2891,7 +2921,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:E26"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2907,41 +2937,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -2953,17 +2983,17 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" thickBot="1">
-      <c r="B5" s="53"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="16" t="s">
         <v>26</v>
       </c>
@@ -2981,187 +3011,187 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B6" s="54"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="18">
-        <v>43927</v>
+        <v>43941</v>
       </c>
       <c r="D6" s="18">
-        <v>43928</v>
+        <v>43942</v>
       </c>
       <c r="E6" s="18">
-        <v>43929</v>
+        <v>43943</v>
       </c>
       <c r="F6" s="18">
-        <v>43930</v>
+        <v>43944</v>
       </c>
       <c r="G6" s="18">
-        <v>43931</v>
+        <v>43945</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="F7" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="26.25" customHeight="1">
+      <c r="B8" s="53"/>
+      <c r="C8" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="G8" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="29.25" customHeight="1">
+      <c r="B9" s="53"/>
+      <c r="C9" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="27.75" customHeight="1">
+      <c r="B10" s="53"/>
+      <c r="C10" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1">
+      <c r="B11" s="53"/>
+      <c r="C11" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="27.75" customHeight="1">
+      <c r="B12" s="53"/>
+      <c r="C12" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="27.75" customHeight="1">
+      <c r="B13" s="53"/>
+      <c r="C13" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F13" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="27.75" customHeight="1">
+      <c r="B14" s="53"/>
+      <c r="C14" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" customHeight="1" thickBot="1">
+      <c r="B15" s="54"/>
+      <c r="C15" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="G7" s="27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="26.25" customHeight="1">
-      <c r="B8" s="56"/>
-      <c r="C8" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="29.25" customHeight="1">
-      <c r="B9" s="56"/>
-      <c r="C9" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="27.75" customHeight="1">
-      <c r="B10" s="56"/>
-      <c r="C10" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1">
-      <c r="B11" s="56"/>
-      <c r="C11" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="27.75" customHeight="1">
-      <c r="B12" s="56"/>
-      <c r="C12" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="27.75" customHeight="1">
-      <c r="B13" s="56"/>
-      <c r="C13" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="27.75" customHeight="1">
-      <c r="B14" s="56"/>
-      <c r="C14" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="27" t="s">
+      <c r="F15" s="19"/>
+      <c r="G15" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="57"/>
-      <c r="C15" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="29" t="s">
-        <v>155</v>
-      </c>
-    </row>
     <row r="16" spans="1:11" ht="15.75" hidden="1" customHeight="1">
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="55" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -3181,7 +3211,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="21" hidden="1" customHeight="1">
-      <c r="B17" s="59"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
@@ -3199,7 +3229,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="21" hidden="1" customHeight="1">
-      <c r="B18" s="59"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="5" t="s">
         <v>30</v>
       </c>
@@ -3217,7 +3247,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="21" hidden="1" customHeight="1">
-      <c r="B19" s="59"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="5" t="s">
         <v>31</v>
       </c>
@@ -3235,7 +3265,7 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="23.25" hidden="1" customHeight="1">
-      <c r="B20" s="59"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="5" t="s">
         <v>8</v>
       </c>
@@ -3253,7 +3283,7 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="21" hidden="1" customHeight="1" thickBot="1">
-      <c r="B21" s="59"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="14" t="s">
         <v>14</v>
       </c>
@@ -3272,13 +3302,13 @@
     </row>
     <row r="22" spans="2:7" ht="31.5" customHeight="1" thickBot="1">
       <c r="B22" s="15"/>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="62"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
     </row>
     <row r="24" spans="2:7">
       <c r="C24" s="33"/>
@@ -3326,8 +3356,12 @@
     <mergeCell ref="C22:G22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F10" r:id="rId1" location="/entry/enko/320e0a8e1f1f4e3c857bbd8936fe04c0" display="https://en.dict.naver.com/ - /entry/enko/320e0a8e1f1f4e3c857bbd8936fe04c0"/>
+    <hyperlink ref="F11" r:id="rId2" location="/entry/enko/efe6c4638b2142188ba84396f9555db5" display="https://en.dict.naver.com/ - /entry/enko/efe6c4638b2142188ba84396f9555db5"/>
+  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>